--- a/Trabajo-Practico-1/SIM_2025_4K3_Laboratorio_TP1_Grupo12_Corregido.xlsx
+++ b/Trabajo-Practico-1/SIM_2025_4K3_Laboratorio_TP1_Grupo12_Corregido.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frcutneduar-my.sharepoint.com/personal/90019_sistemas_frc_utn_edu_ar/Documents/UTN/QUINTO AÑO/SIM/Simulacion-G12/Trabajo-Practico-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77ADE1BE-7FD9-7D4D-8913-0372E5B5A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{77ADE1BE-7FD9-7D4D-8913-0372E5B5A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{886BA268-E541-417B-9EE3-7E9EC3611A6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable 1" sheetId="1" r:id="rId1"/>
@@ -1730,6 +1730,7 @@
     <xf numFmtId="165" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1758,7 +1759,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1779,7 +1779,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2105,7 +2105,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2697,26 +2697,26 @@
   </sheetPr>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5390625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.484375" customWidth="1"/>
-    <col min="2" max="2" width="19.28125" customWidth="1"/>
-    <col min="4" max="4" width="12.40625" customWidth="1"/>
-    <col min="8" max="8" width="13.078125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6171875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2725,22 +2725,22 @@
         <v>1.354922653177659E-5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2819,11 +2819,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E20" si="0">(D6+$B$9)-($B$11/10)</f>
+        <f>(D6+$B$9)-($B$11/10)</f>
         <v>50005.621100000004</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F20" si="1">(D6+E6)/2</f>
+        <f t="shared" ref="F6:F20" si="0">(D6+E6)/2</f>
         <v>25002.810550000002</v>
       </c>
       <c r="G6" s="8">
@@ -2831,7 +2831,7 @@
         <v>128</v>
       </c>
       <c r="H6" s="10">
-        <f>_xlfn.EXPON.DIST(E6,lambda,1)-_xlfn.EXPON.DIST(D6,lambda,1)</f>
+        <f t="shared" ref="H6:H20" si="1">_xlfn.EXPON.DIST(E6,lambda,1)-_xlfn.EXPON.DIST(D6,lambda,1)</f>
         <v>0.49213391996992822</v>
       </c>
       <c r="I6" s="10">
@@ -2863,7 +2863,7 @@
         <v>7.5901782910150084</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2872,22 +2872,22 @@
         <v>714223</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" ref="D7:D20" si="8">E6</f>
+        <f t="shared" ref="D7" si="8">E6</f>
         <v>50005.621100000004</v>
       </c>
       <c r="E7" s="10">
+        <f t="shared" ref="E6:E7" si="9">(D7+$B$9)-($B$11/10)</f>
+        <v>100011.24219999999</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>100011.24219999999</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
         <v>75008.431649999999</v>
       </c>
       <c r="G7" s="8">
         <v>32</v>
       </c>
       <c r="H7" s="10">
-        <f>_xlfn.EXPON.DIST(E7,lambda,1)-_xlfn.EXPON.DIST(D7,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>0.24993812478496052</v>
       </c>
       <c r="I7" s="10">
@@ -2895,11 +2895,11 @@
         <v>50.987377456131945</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" ref="K7:L7" si="9">D7</f>
+        <f t="shared" ref="K7:L7" si="10">D7</f>
         <v>50005.621100000004</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100011.24219999999</v>
       </c>
       <c r="M7" s="8">
@@ -2919,7 +2919,7 @@
         <v>14.660957778973749</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2928,22 +2928,22 @@
         <v>14.282856857085701</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" ref="D8:D20" si="10">E7</f>
+        <f t="shared" ref="D8:D20" si="11">E7</f>
         <v>100011.24219999999</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" ref="E8:E20" si="11">(D8+$B$9)-($B$11/10)</f>
+        <f t="shared" ref="E8:E20" si="12">(D8+$B$9)-($B$11/10)</f>
         <v>150016.8633</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125014.05275</v>
       </c>
       <c r="G8" s="8">
         <v>8</v>
       </c>
       <c r="H8" s="10">
-        <f>_xlfn.EXPON.DIST(E8,lambda,1)-_xlfn.EXPON.DIST(D8,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>0.12693509568460482</v>
       </c>
       <c r="I8" s="10">
@@ -2951,11 +2951,11 @@
         <v>25.894759519659381</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" ref="K8:L8" si="12">D8</f>
+        <f t="shared" ref="K8:L8" si="13">D8</f>
         <v>100011.24219999999</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>150016.8633</v>
       </c>
       <c r="M8" s="8">
@@ -2975,7 +2975,7 @@
         <v>27.02725984960415</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -2984,22 +2984,22 @@
         <v>50005.622100000001</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>150016.8633</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200022.48440000002</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>175019.67385000002</v>
       </c>
       <c r="G9" s="8">
         <v>11</v>
       </c>
       <c r="H9" s="10">
-        <f>_xlfn.EXPON.DIST(E9,lambda,1)-_xlfn.EXPON.DIST(D9,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>6.4466029463582264E-2</v>
       </c>
       <c r="I9" s="10">
@@ -3007,11 +3007,11 @@
         <v>13.151070010570782</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" ref="K9:L9" si="13">D9</f>
+        <f t="shared" ref="K9:L9" si="14">D9</f>
         <v>150016.8633</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>200022.48440000002</v>
       </c>
       <c r="M9" s="8">
@@ -3031,7 +3031,7 @@
         <v>27.379102109333413</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -3040,22 +3040,22 @@
         <v>73804.950980392154</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200022.48440000002</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250028.10550000003</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>225025.29495000001</v>
       </c>
       <c r="G10" s="8">
         <v>6</v>
       </c>
       <c r="H10" s="10">
-        <f>_xlfn.EXPON.DIST(E10,lambda,1)-_xlfn.EXPON.DIST(D10,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>3.2740109678772722E-2</v>
       </c>
       <c r="I10" s="10">
@@ -3063,11 +3063,11 @@
         <v>6.6789823744696353</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" ref="K10:L10" si="14">D10</f>
+        <f t="shared" ref="K10:L10" si="15">D10</f>
         <v>200022.48440000002</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>250028.10550000003</v>
       </c>
       <c r="M10" s="8">
@@ -3087,7 +3087,7 @@
         <v>27.448127155215051</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -3095,22 +3095,22 @@
         <v>0.01</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>250028.10550000003</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>300033.72660000005</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>275030.91605000006</v>
       </c>
       <c r="G11" s="8">
         <v>7</v>
       </c>
       <c r="H11" s="10">
-        <f>_xlfn.EXPON.DIST(E11,lambda,1)-_xlfn.EXPON.DIST(D11,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>1.6627591162312938E-2</v>
       </c>
       <c r="I11" s="10">
@@ -3142,24 +3142,24 @@
         <v>48.768447044358581</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D12" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300033.72660000005</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>350039.34770000004</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>325036.53715000005</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
       </c>
       <c r="H12" s="10">
-        <f>_xlfn.EXPON.DIST(E12,lambda,1)-_xlfn.EXPON.DIST(D12,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>8.4445895439464458E-3</v>
       </c>
       <c r="I12" s="10">
@@ -3167,7 +3167,7 @@
         <v>1.7226962669650749</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -3175,34 +3175,34 @@
         <v>21</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>350039.34770000004</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>400044.96880000003</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>375042.15825000004</v>
       </c>
       <c r="G13" s="8">
         <v>5</v>
       </c>
       <c r="H13" s="10">
-        <f>_xlfn.EXPON.DIST(E13,lambda,1)-_xlfn.EXPON.DIST(D13,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>4.2887205891470881E-3</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
         <v>0.87489900018600597</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
@@ -3210,35 +3210,35 @@
         <v>7092</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>400044.96880000003</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>450050.58990000002</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>425047.77935000003</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f>_xlfn.EXPON.DIST(E14,lambda,1)-_xlfn.EXPON.DIST(D14,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>2.1780957139543311E-3</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>0.44433152564668355</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
@@ -3246,36 +3246,36 @@
         <v>58336</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>450050.58990000002</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>500056.21100000001</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>475053.40045000002</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="10">
-        <f>_xlfn.EXPON.DIST(E15,lambda,1)-_xlfn.EXPON.DIST(D15,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>1.1061809321762928E-3</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>0.22566091016396372</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
@@ -3283,34 +3283,34 @@
         <v>2468</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500056.21100000001</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550061.8321</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>525059.02154999995</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="10">
-        <f>_xlfn.EXPON.DIST(E16,lambda,1)-_xlfn.EXPON.DIST(D16,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>5.6179177382842393E-4</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>0.11460552186099848</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
@@ -3318,34 +3318,34 @@
         <v>108796</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>550061.8321</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600067.45319999999</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>575064.64265000005</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="10">
-        <f>_xlfn.EXPON.DIST(E17,lambda,1)-_xlfn.EXPON.DIST(D17,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>2.8531498596739979E-4</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>5.8204257137349558E-2</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
@@ -3353,34 +3353,34 @@
         <v>1796</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>600067.45319999999</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>650073.07429999998</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>625070.26374999993</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
       <c r="H18" s="10">
-        <f>_xlfn.EXPON.DIST(E18,lambda,1)-_xlfn.EXPON.DIST(D18,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>1.4490180349702175E-4</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>2.9559967913392438E-2</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>30</v>
       </c>
@@ -3388,22 +3388,22 @@
         <v>18024</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>650073.07429999998</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>700078.69539999997</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>675075.88485000003</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="10">
-        <f>_xlfn.EXPON.DIST(E19,lambda,1)-_xlfn.EXPON.DIST(D19,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>7.3590710931381587E-5</v>
       </c>
       <c r="I19" s="10">
@@ -3411,7 +3411,7 @@
         <v>1.5012505030001844E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
@@ -3419,22 +3419,22 @@
         <v>390860</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>700078.69539999997</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>750084.31649999996</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>725081.5059499999</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
       </c>
       <c r="H20" s="10">
-        <f>_xlfn.EXPON.DIST(E20,lambda,1)-_xlfn.EXPON.DIST(D20,lambda,1)</f>
+        <f t="shared" si="1"/>
         <v>3.7374225887343293E-5</v>
       </c>
       <c r="I20" s="10">
@@ -3442,7 +3442,7 @@
         <v>7.6243420810180318E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -3451,15 +3451,15 @@
       </c>
       <c r="D21" s="19"/>
       <c r="G21" s="20">
-        <f t="shared" ref="G21:H21" si="15">SUM(G6:G20)</f>
+        <f t="shared" ref="G21:H21" si="16">SUM(G6:G20)</f>
         <v>204</v>
       </c>
-      <c r="H21" s="54">
-        <f t="shared" si="15"/>
+      <c r="H21" s="36">
+        <f t="shared" si="16"/>
         <v>0.99996143102349722</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>33</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>462588</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>34</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>237964</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>35</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>99896</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>21696</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>14569</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>16024</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>43</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>54060</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>44</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>45</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>46</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>47</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>48</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>49</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>50</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>51</v>
       </c>
@@ -3612,57 +3612,57 @@
         <v>597264</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="18">
         <v>276092</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-    </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="18">
         <v>160200</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="18">
         <v>16672</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="18">
         <v>12396</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>57</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>11464</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>59</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>376352</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>61</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>55200</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>62</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>292800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>63</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>77284</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>64</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>36836</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>65</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>227396</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>66</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>195880</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>67</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>272332</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>68</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>69</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>70</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>11176</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>72</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>200864</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>73</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>125692</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>74</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>75</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>76</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>77</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>11684</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>78</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>79</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>11636</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>80</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>83244</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>81</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>290636</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>82</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>83</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>89500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>84</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>26328</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>85</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>13644</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>86</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>62728</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>87</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>25736</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>46196</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>89</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>168304</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>90</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>64304</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>91</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>92</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>8716</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>93</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>56300</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>94</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>38464</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>95</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>101116</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>96</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>89056</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>97</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>98</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>99</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>50152</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>100</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>66276</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>101</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>60920</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>102</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>17828</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>103</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>104</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>6736</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>105</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>106</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>197416</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>107</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>22272</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>108</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>109</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>110</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>56188</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>111</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>112</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>63812</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>113</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>114</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>115</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>116</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>38840</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>117</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>99036</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>118</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>61908</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>119</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>87180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>120</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>115620</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>121</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>337965</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>122</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>191868</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>123</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>124</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>125</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>14648</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>126</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>127</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>128</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>398508</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>129</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>248116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>130</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>247132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>131</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>109616</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>132</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>99400</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>133</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>117252</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>134</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>168056</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>135</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>150948</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>136</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>54028</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>137</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>49879</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>138</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>22464</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>139</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>22636</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>140</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>141</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>53696</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>142</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>18684</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>143</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>21108</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>144</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>145</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>103376</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>146</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>9468</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>147</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>15172</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>148</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>9484</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>149</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>25496</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>150</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>9268</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>151</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>23348</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>152</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>7769</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>153</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>21044</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>154</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>155</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>156</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>157</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>158</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>7312</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>159</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>12117</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>160</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>161</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>162</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>171136</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>163</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>164</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>165</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>166</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>167</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>168</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>169</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>170</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>171</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>172</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>173</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>174</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>175</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>176</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>177</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>178</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>179</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>180</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>7562</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>181</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>11636</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>182</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>33879</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>183</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>296343</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>184</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>453014</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
         <v>185</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>386000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
         <v>186</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
         <v>187</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
         <v>188</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>268982</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
         <v>189</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>11475</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
         <v>190</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>68227</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
         <v>191</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
         <v>192</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>373784</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
         <v>193</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>319188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
         <v>194</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>140640</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
         <v>195</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>160108</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
         <v>196</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>150496</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>197</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>180464</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
         <v>198</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>74131</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>199</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
         <v>200</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>51365</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
         <v>201</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
         <v>202</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>30236</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
         <v>203</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>24186</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
         <v>204</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>55828</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
         <v>205</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>16236</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
         <v>206</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
         <v>207</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
         <v>208</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
         <v>209</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>80762</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
         <v>210</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
         <v>211</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>9144</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
         <v>212</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>66210</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
         <v>213</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
         <v>214</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
         <v>215</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>54100</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
         <v>216</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>14862</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
         <v>217</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
         <v>218</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
         <v>219</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
         <v>220</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>54810</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
         <v>221</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>11567</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
         <v>222</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>211686</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
         <v>223</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>8156</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
         <v>224</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
         <v>225</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>72516</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
         <v>226</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>714223</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="18" t="s">
         <v>227</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>500368</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="18" t="s">
         <v>228</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>74510</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="18" t="s">
         <v>229</v>
       </c>
@@ -5066,23 +5066,23 @@
   </sheetPr>
   <dimension ref="A1:P216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5390625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6171875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
@@ -5094,11 +5094,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="F2" s="13" t="s">
         <v>232</v>
       </c>
@@ -5110,13 +5110,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>2.5026977393675942</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>7.7225951291902684</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>9.2527304138604034</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>11.6027185628565</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>15.682557858707856</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>16.832643431592313</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="D12" s="24">
@@ -5569,7 +5569,7 @@
         <v>16.922748112906632</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D13" s="24">
         <f t="shared" si="8"/>
         <v>2.513300000000001</v>
@@ -5618,7 +5618,7 @@
         <v>19.185894687760886</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>235</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>20.189788740410645</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>237</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>21.179123100706658</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>238</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>1.6837372008483786</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>239</v>
       </c>
@@ -5789,12 +5789,12 @@
         <f t="shared" si="3"/>
         <v>0.63098411415882794</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>241</v>
       </c>
@@ -5824,13 +5824,13 @@
         <f t="shared" si="3"/>
         <v>0.20487088248108964</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L18" s="49"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>243</v>
       </c>
@@ -5860,14 +5860,14 @@
         <f t="shared" si="3"/>
         <v>5.7629989410545868E-2</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>245</v>
       </c>
@@ -5879,36 +5879,36 @@
       <c r="F20" s="28"/>
       <c r="H20" s="32"/>
       <c r="I20" s="28"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>246</v>
       </c>
       <c r="B21" s="18">
         <v>1.34</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+    </row>
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>247</v>
       </c>
       <c r="B22" s="18">
         <v>2.09</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>248</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>249</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>250</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>251</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>252</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>253</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>254</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>255</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>256</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>257</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>258</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>259</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>260</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>261</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>262</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>263</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>264</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>265</v>
       </c>
@@ -6052,45 +6052,45 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>266</v>
       </c>
       <c r="B41" s="18">
         <v>1.76</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>268</v>
       </c>
       <c r="B42" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>269</v>
       </c>
       <c r="B43" s="18">
         <v>2.54</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>270</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>271</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>272</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>273</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>274</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>275</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>276</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>277</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>278</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>279</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>280</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>281</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>282</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>283</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>284</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>285</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>286</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>287</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>288</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>289</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>290</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>291</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>292</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>293</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>294</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>295</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>296</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>297</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>298</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>299</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>300</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>301</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>302</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>303</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>304</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>305</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>306</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>307</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>308</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>309</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>310</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>311</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>312</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>313</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>314</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>315</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>316</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>317</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
         <v>318</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>319</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>320</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>321</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>322</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>323</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>324</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>325</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>326</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>327</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>328</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>329</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>330</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>331</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>332</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>333</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>334</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>335</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>336</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>337</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>338</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>339</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>340</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>341</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>342</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>343</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>344</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>345</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>346</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>347</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>348</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>349</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>350</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>351</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>352</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>353</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>354</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>355</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>356</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>357</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>358</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>359</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>360</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>361</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>362</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>363</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>364</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>365</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>366</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>367</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>368</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>369</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>370</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>371</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>372</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>373</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>374</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>375</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>376</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>377</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>378</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>379</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>380</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>381</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>382</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>383</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>384</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>385</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>386</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>387</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>388</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>389</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>390</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>391</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>392</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>393</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>394</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>395</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>396</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>397</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>398</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
         <v>399</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
         <v>400</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
         <v>401</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
         <v>402</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
         <v>403</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
         <v>404</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
         <v>405</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
         <v>406</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
         <v>407</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="18" t="s">
         <v>408</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
         <v>409</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
         <v>410</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>411</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
         <v>412</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>413</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
         <v>414</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="18" t="s">
         <v>415</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="18" t="s">
         <v>416</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="18" t="s">
         <v>417</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="18" t="s">
         <v>418</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="18" t="s">
         <v>419</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
         <v>420</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
         <v>421</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
         <v>422</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
         <v>423</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
         <v>424</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
         <v>425</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
         <v>426</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
         <v>427</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
         <v>428</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
         <v>429</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
         <v>430</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
         <v>431</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
         <v>432</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
         <v>433</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
         <v>434</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
         <v>435</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
         <v>436</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
         <v>437</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="18" t="s">
         <v>438</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
         <v>439</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
         <v>440</v>
       </c>
@@ -7458,11 +7458,11 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
     </row>
-    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <f>(1/($G$2*SQRT(2*PI())))*(EXP((-0.5)*((F6-$G$1)/($G$2))^2))</f>
         <v>0.27241635884291954</v>
